--- a/tables/OSM_top_model_summary.xlsx
+++ b/tables/OSM_top_model_summary.xlsx
@@ -650,7 +650,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>CFI</t>
+          <t>Site Disturbance</t>
         </is>
       </c>
     </row>
